--- a/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:24:35+00:00</t>
+    <t>2024-12-03T17:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:07:46+00:00</t>
+    <t>2024-12-04T11:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/patch-sp-healthcareservice-notavailable-closing-reopeningdate/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T11:53:05+00:00</t>
+    <t>2024-12-04T13:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
